--- a/projetS5/public/INFO/2018-2019/INFO1/S2/UE21/POO-1.xlsx
+++ b/projetS5/public/INFO/2018-2019/INFO1/S2/UE21/POO-1.xlsx
@@ -15,7 +15,350 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>Moyenne de l'étudiant</t>
+  </si>
+  <si>
+    <t>Rang</t>
+  </si>
+  <si>
+    <t>BAUDELET</t>
+  </si>
+  <si>
+    <t>Geoffrey</t>
+  </si>
+  <si>
+    <t>2-B</t>
+  </si>
+  <si>
+    <t>BIGARD</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>2-C</t>
+  </si>
+  <si>
+    <t>BISSON</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>2-A</t>
+  </si>
+  <si>
+    <t>BONTE</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>BOULNOIS</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>CHATELET</t>
+  </si>
+  <si>
+    <t>Hadrien</t>
+  </si>
+  <si>
+    <t>CLEROT</t>
+  </si>
+  <si>
+    <t>Jérémy</t>
+  </si>
+  <si>
+    <t>CORNU</t>
+  </si>
+  <si>
+    <t>Bastien</t>
+  </si>
+  <si>
+    <t>DACHY</t>
+  </si>
+  <si>
+    <t>Remy</t>
+  </si>
+  <si>
+    <t>DANGLETERRE</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>DEBACKER</t>
+  </si>
+  <si>
+    <t>DELBREUVE</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>DEROSNE</t>
+  </si>
+  <si>
+    <t>Florentin</t>
+  </si>
+  <si>
+    <t>DUHAUT</t>
+  </si>
+  <si>
+    <t>DUMETZ</t>
+  </si>
+  <si>
+    <t>Joffrey</t>
+  </si>
+  <si>
+    <t>FEVRIER</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>FORGET</t>
+  </si>
+  <si>
+    <t>Kévin</t>
+  </si>
+  <si>
+    <t>FROISSART</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>FRUY</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>GEERAERT</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>GREMBER</t>
+  </si>
+  <si>
+    <t>HENNAUT</t>
+  </si>
+  <si>
+    <t>Thibaut</t>
+  </si>
+  <si>
+    <t>KURZAWSKI</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>LAMBERSENS</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>LE FOLL</t>
+  </si>
+  <si>
+    <t>Coralie</t>
+  </si>
+  <si>
+    <t>LECHA</t>
+  </si>
+  <si>
+    <t>LEFAIT</t>
+  </si>
+  <si>
+    <t>Romain</t>
+  </si>
+  <si>
+    <t>LEFEBVRE</t>
+  </si>
+  <si>
+    <t>Jéremy</t>
+  </si>
+  <si>
+    <t>LEGRAND</t>
+  </si>
+  <si>
+    <t>Baptiste</t>
+  </si>
+  <si>
+    <t>LEGRU</t>
+  </si>
+  <si>
+    <t>Florent</t>
+  </si>
+  <si>
+    <t>LEMAITRE</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>LESAFFRE</t>
+  </si>
+  <si>
+    <t>LETERTRE</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>LONGOUR</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>LOOPE</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>MAERTEN</t>
+  </si>
+  <si>
+    <t>MAILLOT</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>MARIE</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>MASSELOT</t>
+  </si>
+  <si>
+    <t>MERLIN</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>PETIT</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>POLAN</t>
+  </si>
+  <si>
+    <t>POUILLY</t>
+  </si>
+  <si>
+    <t>Gaetan</t>
+  </si>
+  <si>
+    <t>ROLAND</t>
+  </si>
+  <si>
+    <t>Jeremie</t>
+  </si>
+  <si>
+    <t>ROTTIERS</t>
+  </si>
+  <si>
+    <t>Theo</t>
+  </si>
+  <si>
+    <t>SACRE</t>
+  </si>
+  <si>
+    <t>SCHILLER</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>SURET</t>
+  </si>
+  <si>
+    <t>SZKARADEK</t>
+  </si>
+  <si>
+    <t>Thibaud</t>
+  </si>
+  <si>
+    <t>SZYMURA</t>
+  </si>
+  <si>
+    <t>TANG</t>
+  </si>
+  <si>
+    <t>Frédéric</t>
+  </si>
+  <si>
+    <t>TASSART</t>
+  </si>
+  <si>
+    <t>THERAGE</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>VANDEWOORDE</t>
+  </si>
+  <si>
+    <t>Aymeric</t>
+  </si>
+  <si>
+    <t>VANROY</t>
+  </si>
+  <si>
+    <t>VELLA</t>
+  </si>
+  <si>
+    <t>Emanuele</t>
+  </si>
+  <si>
+    <t>VERPOEST</t>
+  </si>
+  <si>
+    <t>Sylvain</t>
+  </si>
+  <si>
+    <t>WICART</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,7 +695,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -360,13 +703,1071 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.10" bestFit="true" style="0"/>
-    <col min="2" max="2" width="9.10" bestFit="true" style="0"/>
-    <col min="3" max="3" width="9.10" bestFit="true" style="0"/>
-    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
-    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>20150926</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>20150927</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>20150928</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>20150929</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>20150930</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>20150931</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>20150932</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>20150933</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>20150934</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>20150935</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>20150936</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>20150937</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>20150938</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>20150939</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>20150940</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>20150941</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>20150942</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>20150943</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20150944</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>20150945</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20150946</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>20150947</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>20150948</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>20150949</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>20150950</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>20150951</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>20150952</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>20150953</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>20150954</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>20150955</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>20150956</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>20150957</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>20150958</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>20150959</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>20150960</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>20150961</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>20150962</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>20150963</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>20150964</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>20150965</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>20150966</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>20150967</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>20150968</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>20150969</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>20150970</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20150971</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>20150972</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>20150973</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>20150974</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>20150975</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>20150976</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>20150977</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>20150978</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>20150979</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>20150980</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>20150981</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>20150982</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20150983</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>20150984</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>20150985</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>20150986</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
